--- a/all/Gender.xlsx
+++ b/all/Gender.xlsx
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>

--- a/all/Gender.xlsx
+++ b/all/Gender.xlsx
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
